--- a/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
+++ b/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D16806-131B-4A2F-BC1B-5BA65B276163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272FDD9-70F4-407F-9198-8D760A83C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sources:</t>
   </si>
@@ -51,15 +51,9 @@
     <t>BSfVBP BAU Subsidy for Vehicle Battery Production</t>
   </si>
   <si>
-    <t>2022 to 2012 USD</t>
-  </si>
-  <si>
     <t>In the US, the Inflation Reduction Act includes a credit of $35/kWh for battery cells and $10/kWh for assembly for onroad vehicle</t>
   </si>
   <si>
-    <t>batteries.</t>
-  </si>
-  <si>
     <t>United States Congress</t>
   </si>
   <si>
@@ -67,13 +61,25 @@
   </si>
   <si>
     <t>https://www.congress.gov/bill/117th-congress/house-bill/5376/text</t>
+  </si>
+  <si>
+    <t>2023 to 2012 USD</t>
+  </si>
+  <si>
+    <t>2024 to 2012 USD</t>
+  </si>
+  <si>
+    <t>annual inflation assumption after 2024</t>
+  </si>
+  <si>
+    <t>batteries. This value is not inflation adjusted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +89,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,18 +120,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,12 +477,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,20 +492,36 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.78500000000000003</v>
+        <v>0.75350342301658668</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +537,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F2" sqref="F2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,43 +649,43 @@
       </c>
       <c r="D2">
         <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <v>33.907654035746404</v>
       </c>
       <c r="E2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>45*About!$A$13</f>
+        <v>32.85</v>
       </c>
       <c r="F2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>E2*(1-About!$A$14)</f>
+        <v>31.8645</v>
       </c>
       <c r="G2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>F2*(1-About!$A$14)</f>
+        <v>30.908564999999999</v>
       </c>
       <c r="H2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>G2*(1-About!$A$14)</f>
+        <v>29.981308049999999</v>
       </c>
       <c r="I2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>H2*(1-About!$A$14)</f>
+        <v>29.081868808499998</v>
       </c>
       <c r="J2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>I2*(1-About!$A$14)</f>
+        <v>28.209412744244997</v>
       </c>
       <c r="K2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>J2*(1-About!$A$14)</f>
+        <v>27.363130361917644</v>
       </c>
       <c r="L2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>K2*(1-About!$A$14)</f>
+        <v>26.542236451060113</v>
       </c>
       <c r="M2">
-        <f>45*About!$A$12</f>
-        <v>35.325000000000003</v>
+        <f>L2*(1-About!$A$14)</f>
+        <v>25.74596935752831</v>
       </c>
       <c r="N2">
         <v>0</v>

--- a/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
+++ b/InputData/trans/BSfVBP/BAU Subsidy for Vehicle Battery Production.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BSfVBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\trans\BSfVBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272FDD9-70F4-407F-9198-8D760A83C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9D6FEB-034F-478A-8AD8-D0B136B65BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="59685" yWindow="1425" windowWidth="21495" windowHeight="15210" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BSfVBP" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase Out" sheetId="3" r:id="rId2"/>
+    <sheet name="BSfVBP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -449,20 +450,20 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.28515625" customWidth="1"/>
+    <col min="2" max="2" width="101.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,37 +471,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.75350342301658668</v>
       </c>
@@ -508,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.73</v>
       </c>
@@ -516,7 +517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>0.03</v>
       </c>
@@ -530,6 +531,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C9E03B-0117-4904-B384-FB6A8159AD7F}">
+  <dimension ref="B2:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+      <c r="E2">
+        <v>2026</v>
+      </c>
+      <c r="F2">
+        <v>2027</v>
+      </c>
+      <c r="G2">
+        <v>2028</v>
+      </c>
+      <c r="H2">
+        <v>2029</v>
+      </c>
+      <c r="I2">
+        <v>2030</v>
+      </c>
+      <c r="J2">
+        <v>2031</v>
+      </c>
+      <c r="K2">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB58F1CD-3AD5-4A1E-8AA0-C74AF29D4BF2}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -537,12 +617,12 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -637,7 +717,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -656,36 +736,36 @@
         <v>32.85</v>
       </c>
       <c r="F2">
-        <f>E2*(1-About!$A$14)</f>
+        <f>$E2*(1-About!$A$14)^(F1-$E1)*'Phase Out'!D3</f>
         <v>31.8645</v>
       </c>
       <c r="G2">
-        <f>F2*(1-About!$A$14)</f>
+        <f>$E2*(1-About!$A$14)^(G1-$E1)*'Phase Out'!E3</f>
         <v>30.908564999999999</v>
       </c>
       <c r="H2">
-        <f>G2*(1-About!$A$14)</f>
+        <f>$E2*(1-About!$A$14)^(H1-$E1)*'Phase Out'!F3</f>
         <v>29.981308049999999</v>
       </c>
       <c r="I2">
-        <f>H2*(1-About!$A$14)</f>
+        <f>$E2*(1-About!$A$14)^(I1-$E1)*'Phase Out'!G3</f>
         <v>29.081868808499998</v>
       </c>
       <c r="J2">
-        <f>I2*(1-About!$A$14)</f>
+        <f>$E2*(1-About!$A$14)^(J1-$E1)*'Phase Out'!H3</f>
         <v>28.209412744244997</v>
       </c>
       <c r="K2">
-        <f>J2*(1-About!$A$14)</f>
-        <v>27.363130361917644</v>
+        <f>$E2*(1-About!$A$14)^(K1-$E1)*'Phase Out'!I3</f>
+        <v>20.522347771438234</v>
       </c>
       <c r="L2">
-        <f>K2*(1-About!$A$14)</f>
-        <v>26.542236451060113</v>
+        <f>$E2*(1-About!$A$14)^(L1-$E1)*'Phase Out'!J3</f>
+        <v>13.27111822553006</v>
       </c>
       <c r="M2">
-        <f>L2*(1-About!$A$14)</f>
-        <v>25.74596935752831</v>
+        <f>$E2*(1-About!$A$14)^(M1-$E1)*'Phase Out'!K3</f>
+        <v>6.4364923393820792</v>
       </c>
       <c r="N2">
         <v>0</v>
